--- a/be/Services/Core/D.Core.API/Template/detail_delegation.xlsx
+++ b/be/Services/Core/D.Core.API/Template/detail_delegation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\New folder\CODE\Đồ án\d.university\be\Services\Core\D.Core.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB3565-7C04-443B-8F31-80F335B6FA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9A9609-D9D3-4657-AB26-EEA33E4F1376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách đoàn vào" sheetId="1" r:id="rId1"/>
@@ -104,14 +104,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,32 +431,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
